--- a/src/measuring_intangible_capital/data_management/data/GDP_per_capita_PPP.xlsx
+++ b/src/measuring_intangible_capital/data_management/data/GDP_per_capita_PPP.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 5.1.1.178"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krasimirakirilova/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B19C1-21C8-4445-959B-D9AE3010E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18080" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
   <si>
     <t>Statistical concept and methodology</t>
   </si>
@@ -23,12 +35,6 @@
     <t>Series Code</t>
   </si>
   <si>
-    <t>DNK</t>
-  </si>
-  <si>
-    <t>GRC</t>
-  </si>
-  <si>
     <t>Aggregation method</t>
   </si>
   <si>
@@ -47,12 +53,12 @@
     <t>2003 [YR2003]</t>
   </si>
   <si>
+    <t>DEU</t>
+  </si>
+  <si>
     <t>Long definition</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -65,26 +71,44 @@
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
-    <t>CZE</t>
+    <t>Italy</t>
   </si>
   <si>
     <t>Country Name</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>International Comparison Program, World Bank | World Development Indicators database, World Bank | Eurostat-OECD PPP Programme.</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
   <si>
     <t>This indicator provides per capita values for gross domestic product (GDP) expressed in current international dollars converted by purchasing power parity (PPP) conversion factor. 
 GDP is the sum of gross value added by all resident producers in the country plus any product taxes and minus any subsidies not included in the value of the products. conversion factor is a spatial price deflator and currency converter that controls for price level differences between countries. Total population is a mid-year population based on the de facto definition of population, which counts all residents regardless of legal status or citizenship.</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>Indicator Name</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>ESP</t>
   </si>
   <si>
     <t>GDP per capita, PPP (current international $)</t>
@@ -102,178 +126,74 @@
 For the concept and methodology of PPP, please refer to the International Comparison Program (ICP)’s website (https://www.worldbank.org/en/programs/icp).</t>
   </si>
   <si>
+    <t>2001 [YR2001]</t>
+  </si>
+  <si>
+    <t>Series Name</t>
+  </si>
+  <si>
+    <t>Data from database: World Development Indicators</t>
+  </si>
+  <si>
+    <t>2000 [YR2000]</t>
+  </si>
+  <si>
+    <t>Weighted average</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Periodicity</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.PP.CD</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>AUT</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
     <t>SVK</t>
-  </si>
-  <si>
-    <t>2001 [YR2001]</t>
-  </si>
-  <si>
-    <t>Series Name</t>
-  </si>
-  <si>
-    <t>Data from database: World Development Indicators</t>
-  </si>
-  <si>
-    <t>2000 [YR2000]</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Weighted average</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Periodicity</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>NY.GDP.PCAP.PP.CD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,14 +219,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -594,289 +523,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c s="1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>26531.584486814074</v>
+      </c>
+      <c r="F2">
+        <v>27912.636593975556</v>
+      </c>
+      <c r="G2">
+        <v>29089.05367704072</v>
+      </c>
+      <c r="H2">
+        <v>30317.393605154273</v>
+      </c>
+      <c r="I2">
+        <v>32054.77271275215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>36329.956072710193</v>
+      </c>
+      <c r="F3">
+        <v>37133.623113437039</v>
+      </c>
+      <c r="G3">
+        <v>37997.759657305127</v>
+      </c>
+      <c r="H3">
+        <v>39490.274955700712</v>
+      </c>
+      <c r="I3">
+        <v>41724.631628762399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c s="1" t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>26091.849735153133</v>
+      </c>
+      <c r="F4">
+        <v>27490.867264376149</v>
+      </c>
+      <c r="G4">
+        <v>28518.825220625182</v>
+      </c>
+      <c r="H4">
+        <v>28168.618097350107</v>
+      </c>
+      <c r="I4">
+        <v>29055.352750542817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>27204.293373607466</v>
+      </c>
+      <c r="F5">
+        <v>28373.974192962934</v>
+      </c>
+      <c r="G5">
+        <v>29178.637465812219</v>
+      </c>
+      <c r="H5">
+        <v>29909.675178467427</v>
+      </c>
+      <c r="I5">
+        <v>31334.015341753511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-      <c s="1" t="s">
-        <v>27</v>
-      </c>
-      <c>
+      <c r="E6">
+        <v>27077.632731839498</v>
+      </c>
+      <c r="F6">
+        <v>28039.092893343135</v>
+      </c>
+      <c r="G6">
+        <v>28736.577107350364</v>
+      </c>
+      <c r="H6">
+        <v>29198.399267919598</v>
+      </c>
+      <c r="I6">
+        <v>29554.862559907309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>21588.423748843117</v>
+      </c>
+      <c r="F7">
+        <v>22953.571565911741</v>
+      </c>
+      <c r="G7">
+        <v>24371.598849266567</v>
+      </c>
+      <c r="H7">
+        <v>25047.397273222032</v>
+      </c>
+      <c r="I7">
+        <v>26143.768714156209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
         <v>29381.684877011528</v>
       </c>
-      <c>
+      <c r="F8">
         <v>29708.493570240025</v>
       </c>
-      <c>
-        <v>31178.6933297272</v>
-      </c>
-      <c>
+      <c r="G8">
+        <v>31178.693329727201</v>
+      </c>
+      <c r="H8">
         <v>32145.87051081063</v>
       </c>
-      <c>
+      <c r="I8">
         <v>33774.018094548759</v>
       </c>
     </row>
-    <row>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>33</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
         <v>19519.956814705689</v>
       </c>
-      <c>
+      <c r="F9">
         <v>20958.794005490283</v>
       </c>
-      <c>
+      <c r="G9">
         <v>22615.935607463525</v>
       </c>
-      <c>
+      <c r="H9">
         <v>23897.82661220849</v>
       </c>
-      <c>
+      <c r="I9">
         <v>25460.599374425667</v>
       </c>
     </row>
-    <row>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>37</v>
-      </c>
-      <c s="1" t="s">
-        <v>2</v>
-      </c>
-      <c>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
         <v>28663.65188092029</v>
       </c>
-      <c>
+      <c r="F10">
         <v>29442.962290897533</v>
       </c>
-      <c>
+      <c r="G10">
         <v>30640.345623096811</v>
       </c>
-      <c>
+      <c r="H10">
         <v>30821.943177174027</v>
       </c>
-      <c>
+      <c r="I10">
         <v>32938.88288432917</v>
       </c>
     </row>
-    <row>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c s="1" t="s">
-        <v>16</v>
-      </c>
-      <c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
         <v>16238.612240922499</v>
       </c>
-      <c>
+      <c r="F11">
         <v>17624.437219406893</v>
       </c>
-      <c>
+      <c r="G11">
         <v>18252.572765368506</v>
       </c>
-      <c>
+      <c r="H11">
         <v>19539.057277175751</v>
       </c>
-      <c>
+      <c r="I11">
         <v>20932.197399846293</v>
       </c>
     </row>
-    <row>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>11378.759184536932</v>
+      </c>
+      <c r="F12">
+        <v>12388.366082173174</v>
+      </c>
+      <c r="G12">
+        <v>13312.203306834008</v>
+      </c>
+      <c r="H12">
+        <v>14181.825269519477</v>
+      </c>
+      <c r="I12">
+        <v>15226.419350204718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c s="1" t="s">
-        <v>28</v>
-      </c>
-      <c>
-        <v>11378.759184536932</v>
-      </c>
-      <c>
-        <v>12388.366082173174</v>
-      </c>
-      <c>
-        <v>13312.203306834008</v>
-      </c>
-      <c>
-        <v>14181.825269519477</v>
-      </c>
-      <c>
-        <v>15226.419350204718</v>
-      </c>
-    </row>
-    <row>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row>
-      <c t="s">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="10" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="10" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c s="2" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c s="2" t="s">
-        <v>22</v>
-      </c>
-      <c s="2" t="s">
-        <v>10</v>
-      </c>
-      <c s="2" t="s">
-        <v>39</v>
-      </c>
-      <c s="2" t="s">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c s="2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c s="2" t="s">
-        <v>4</v>
-      </c>
-      <c s="2" t="s">
-        <v>0</v>
-      </c>
-      <c s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>40</v>
-      </c>
-      <c s="2" t="s">
-        <v>8</v>
-      </c>
-      <c s="2" t="s">
-        <v>23</v>
-      </c>
-      <c s="2" t="s">
-        <v>20</v>
-      </c>
-      <c s="2" t="s">
-        <v>19</v>
-      </c>
-      <c s="2" t="s">
-        <v>13</v>
-      </c>
-      <c s="2" t="s">
-        <v>36</v>
-      </c>
-      <c s="2" t="s">
-        <v>34</v>
-      </c>
-      <c s="2" t="s">
-        <v>26</v>
-      </c>
-      <c s="2" t="s">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
